--- a/data/trans_orig/P2A_lim_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9983</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5468</v>
+        <v>4479</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17811</v>
+        <v>17532</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02024577161468539</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01108865337281763</v>
+        <v>0.009082926239655098</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03612296164417033</v>
+        <v>0.0355563541576463</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>18585</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11728</v>
+        <v>11749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28123</v>
+        <v>28820</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03975409036655993</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02508791859832698</v>
+        <v>0.02513130823494398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06015761880567214</v>
+        <v>0.06164783364361215</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -786,19 +786,19 @@
         <v>28567</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18718</v>
+        <v>18921</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40108</v>
+        <v>40501</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02974011651474132</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01948642549345568</v>
+        <v>0.01969743174042866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.041754952852236</v>
+        <v>0.0421634239418201</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>483092</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475264</v>
+        <v>475543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>487607</v>
+        <v>488596</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9797542283853146</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9638770383558296</v>
+        <v>0.9644436458423535</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9889113466271823</v>
+        <v>0.9909170737603449</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>470</v>
@@ -836,19 +836,19 @@
         <v>448904</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>439366</v>
+        <v>438669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>455761</v>
+        <v>455740</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.96024590963344</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9398423811943278</v>
+        <v>0.9383521663563879</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9749120814016731</v>
+        <v>0.9748686917650562</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>958</v>
@@ -857,19 +857,19 @@
         <v>931997</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>920456</v>
+        <v>920063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>941846</v>
+        <v>941643</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9702598834852587</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9582450471477639</v>
+        <v>0.9578365760581798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9805135745065443</v>
+        <v>0.9803025682595713</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16390</v>
+        <v>16495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36382</v>
+        <v>36995</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0340924007201578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02237659112181957</v>
+        <v>0.02251891103142591</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04966907221164358</v>
+        <v>0.05050661777778956</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -982,19 +982,19 @@
         <v>19613</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12213</v>
+        <v>11812</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29919</v>
+        <v>29427</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03135563347051757</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01952529569428617</v>
+        <v>0.01888502032844814</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04783193807956417</v>
+        <v>0.04704537744537288</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -1003,19 +1003,19 @@
         <v>44585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31933</v>
+        <v>33922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58303</v>
+        <v>57471</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03283182245862061</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02351534620209514</v>
+        <v>0.02498021428588846</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04293382899000408</v>
+        <v>0.04232120651032859</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>707507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>696097</v>
+        <v>695484</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>716089</v>
+        <v>715984</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9659075992798422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9503309277883565</v>
+        <v>0.9494933822222105</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9776234088781802</v>
+        <v>0.9774810889685739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>572</v>
@@ -1053,19 +1053,19 @@
         <v>605881</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>595575</v>
+        <v>596067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>613281</v>
+        <v>613682</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9686443665294824</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9521680619204357</v>
+        <v>0.9529546225546274</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9804747043057138</v>
+        <v>0.9811149796715518</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1247</v>
@@ -1074,19 +1074,19 @@
         <v>1313388</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1299670</v>
+        <v>1300502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1326040</v>
+        <v>1324051</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9671681775413794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.957066171009996</v>
+        <v>0.9576787934896719</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9764846537979052</v>
+        <v>0.9750197857141117</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>32443</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21525</v>
+        <v>22175</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45216</v>
+        <v>46798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05086790428730142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03374940159646544</v>
+        <v>0.03476820007993259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07089486466170962</v>
+        <v>0.07337648451317288</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1199,19 +1199,19 @@
         <v>42672</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30111</v>
+        <v>30672</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57070</v>
+        <v>57333</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06204984907816575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04378506351093659</v>
+        <v>0.04459985661329802</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08298543793742341</v>
+        <v>0.08336773933323104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -1220,19 +1220,19 @@
         <v>75115</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58127</v>
+        <v>58021</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94712</v>
+        <v>94861</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0566694544420773</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04385322760241519</v>
+        <v>0.04377326835909182</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07145436017589492</v>
+        <v>0.07156632771185746</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>605343</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>592570</v>
+        <v>590988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>616261</v>
+        <v>615611</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9491320957126986</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9291051353382905</v>
+        <v>0.926623515486827</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9662505984035346</v>
+        <v>0.9652317999200674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>617</v>
@@ -1270,19 +1270,19 @@
         <v>645037</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>630639</v>
+        <v>630376</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>657598</v>
+        <v>657037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9379501509218342</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9170145620625768</v>
+        <v>0.9166322606667677</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9562149364890635</v>
+        <v>0.955400143386702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1201</v>
@@ -1291,19 +1291,19 @@
         <v>1250379</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1230782</v>
+        <v>1230633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1267367</v>
+        <v>1267473</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9433305455579227</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9285456398241049</v>
+        <v>0.9284336722881426</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9561467723975847</v>
+        <v>0.9562267316409073</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>36048</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25185</v>
+        <v>26007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47543</v>
+        <v>49063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06980281382544812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04876821903977039</v>
+        <v>0.05035912956194192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0920615599993727</v>
+        <v>0.09500388330039114</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -1416,19 +1416,19 @@
         <v>55287</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42048</v>
+        <v>42256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68952</v>
+        <v>71384</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1076871557578996</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08190136912687294</v>
+        <v>0.08230660305901041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1343044815826462</v>
+        <v>0.1390423367904167</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -1437,19 +1437,19 @@
         <v>91335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73272</v>
+        <v>73768</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110916</v>
+        <v>110389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08868927071591365</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0711494495367659</v>
+        <v>0.07163133189014416</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1077032822629613</v>
+        <v>0.1071911822197964</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>480382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468887</v>
+        <v>467367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491245</v>
+        <v>490423</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9301971861745518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9079384400006272</v>
+        <v>0.9049961166996089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9512317809602294</v>
+        <v>0.949640870438058</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>447</v>
@@ -1487,19 +1487,19 @@
         <v>458114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>444449</v>
+        <v>442017</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471353</v>
+        <v>471145</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8923128442421003</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8656955184173537</v>
+        <v>0.8609576632095832</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.918098630873127</v>
+        <v>0.9176933969409895</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>895</v>
@@ -1508,19 +1508,19 @@
         <v>938497</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>918916</v>
+        <v>919443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>956560</v>
+        <v>956064</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9113107292840864</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8922967177370388</v>
+        <v>0.8928088177802036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9288505504632342</v>
+        <v>0.928368668109856</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>47731</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35764</v>
+        <v>37442</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61856</v>
+        <v>62585</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.123698834362287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09268604052438205</v>
+        <v>0.09703291669291668</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.160304349197335</v>
+        <v>0.1621948750534776</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -1633,19 +1633,19 @@
         <v>40170</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28159</v>
+        <v>29553</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53055</v>
+        <v>54728</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09943507978901167</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06970398436708658</v>
+        <v>0.07315244840776831</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1313276128669389</v>
+        <v>0.1354702501106333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -1654,19 +1654,19 @@
         <v>87902</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73536</v>
+        <v>71737</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107008</v>
+        <v>108680</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1112886339211964</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09310057553428649</v>
+        <v>0.0908229051823847</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1354782511838017</v>
+        <v>0.1375947703177053</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>338135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>324010</v>
+        <v>323281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>350102</v>
+        <v>348424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.876301165637713</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8396956508026653</v>
+        <v>0.8378051249465227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.907313959475618</v>
+        <v>0.9029670833070834</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>359</v>
@@ -1704,19 +1704,19 @@
         <v>363816</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>350931</v>
+        <v>349258</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>375827</v>
+        <v>374433</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9005649202109883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8686723871330613</v>
+        <v>0.8645297498893667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9302960156329136</v>
+        <v>0.9268475515922318</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>702</v>
@@ -1725,19 +1725,19 @@
         <v>701950</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>682844</v>
+        <v>681172</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>716316</v>
+        <v>718115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8887113660788035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8645217488161985</v>
+        <v>0.8624052296822947</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9068994244657137</v>
+        <v>0.9091770948176152</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>34164</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25015</v>
+        <v>24511</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46336</v>
+        <v>47201</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1170998758219977</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08574162845981891</v>
+        <v>0.08401528721377617</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1588227297995485</v>
+        <v>0.1617877327504818</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1850,19 +1850,19 @@
         <v>37978</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28200</v>
+        <v>28430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50282</v>
+        <v>50626</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1107457757290962</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08223092769189819</v>
+        <v>0.08290173442254026</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1466218139382999</v>
+        <v>0.1476273623420265</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -1871,19 +1871,19 @@
         <v>72142</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57668</v>
+        <v>57760</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>87758</v>
+        <v>89164</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1136665986239449</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09086085388897283</v>
+        <v>0.09100556193566137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1382709997207961</v>
+        <v>0.1404859205128133</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>257583</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245411</v>
+        <v>244546</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266732</v>
+        <v>267236</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8829001241780023</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8411772702004515</v>
+        <v>0.8382122672495181</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9142583715401811</v>
+        <v>0.9159847127862237</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>330</v>
@@ -1921,19 +1921,19 @@
         <v>304956</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>292652</v>
+        <v>292308</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>314734</v>
+        <v>314504</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8892542242709037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8533781860617</v>
+        <v>0.8523726376579734</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9177690723081017</v>
+        <v>0.9170982655774598</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>596</v>
@@ -1942,19 +1942,19 @@
         <v>562539</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>546923</v>
+        <v>545517</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>577013</v>
+        <v>576921</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8863334013760551</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8617290002792041</v>
+        <v>0.8595140794871863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9091391461110272</v>
+        <v>0.908994438064337</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>32319</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24134</v>
+        <v>22908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44347</v>
+        <v>42398</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1539836410522763</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1149870344571107</v>
+        <v>0.1091446535434611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2112943429358403</v>
+        <v>0.2020090414738869</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -2067,19 +2067,19 @@
         <v>57125</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44158</v>
+        <v>43230</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73598</v>
+        <v>73198</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1710786383341648</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1322448047082342</v>
+        <v>0.1294661837890983</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.220414634656957</v>
+        <v>0.2192161594028025</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>84</v>
@@ -2088,19 +2088,19 @@
         <v>89443</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70768</v>
+        <v>73819</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107458</v>
+        <v>108603</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.164480608141619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1301387584975685</v>
+        <v>0.1357487127881217</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1976096288039964</v>
+        <v>0.1997151804403511</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>177564</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>165536</v>
+        <v>167485</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>185749</v>
+        <v>186975</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8460163589477238</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7887056570641597</v>
+        <v>0.7979909585261132</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8850129655428893</v>
+        <v>0.890855346456539</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>240</v>
@@ -2138,19 +2138,19 @@
         <v>276783</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>260310</v>
+        <v>260710</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>289750</v>
+        <v>290678</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8289213616658352</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.779585365343043</v>
+        <v>0.7807838405971972</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8677551952917659</v>
+        <v>0.8705338162109018</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>426</v>
@@ -2159,19 +2159,19 @@
         <v>454348</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>436333</v>
+        <v>435188</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>473023</v>
+        <v>469972</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.835519391858381</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8023903711960038</v>
+        <v>0.800284819559649</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8698612415024316</v>
+        <v>0.8642512872118786</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>217659</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>190354</v>
+        <v>191402</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>246465</v>
+        <v>246677</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06661808953176103</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05826097621438767</v>
+        <v>0.05858168807389409</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07543451453477348</v>
+        <v>0.07549964350909698</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>258</v>
@@ -2284,19 +2284,19 @@
         <v>271430</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>240731</v>
+        <v>242864</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>304473</v>
+        <v>308087</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08042549863251321</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07132937077228231</v>
+        <v>0.07196130251483422</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09021640678459221</v>
+        <v>0.09128723488776636</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>473</v>
@@ -2305,19 +2305,19 @@
         <v>489089</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>444863</v>
+        <v>445760</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>535319</v>
+        <v>533781</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07363368797087154</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0669753460100523</v>
+        <v>0.06711035356701867</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08059379798453752</v>
+        <v>0.08036220624315714</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3049607</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3020801</v>
+        <v>3020589</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3076912</v>
+        <v>3075864</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9333819104682389</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9245654854652267</v>
+        <v>0.9245003564909031</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9417390237856124</v>
+        <v>0.9414183119261059</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3035</v>
@@ -2355,19 +2355,19 @@
         <v>3103491</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3070448</v>
+        <v>3066834</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3134190</v>
+        <v>3132057</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9195745013674868</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9097835932154078</v>
+        <v>0.9087127651122336</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9286706292277177</v>
+        <v>0.9280386974851659</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6025</v>
@@ -2376,19 +2376,19 @@
         <v>6153098</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6106868</v>
+        <v>6108406</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6197324</v>
+        <v>6196427</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9263663120291284</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9194062020154623</v>
+        <v>0.9196377937568427</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9330246539899476</v>
+        <v>0.9328896464329813</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>19473</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11796</v>
+        <v>12504</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29372</v>
+        <v>29649</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04297816678023002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02603309552262837</v>
+        <v>0.02759647979353719</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06482514410089872</v>
+        <v>0.06543532726228812</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2744,19 +2744,19 @@
         <v>24735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16834</v>
+        <v>16312</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36092</v>
+        <v>35159</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05749311374259452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03912721453036755</v>
+        <v>0.03791514513174342</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08389059929964986</v>
+        <v>0.08172037356100208</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -2765,19 +2765,19 @@
         <v>44209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32733</v>
+        <v>31770</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57907</v>
+        <v>57616</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05004775728107388</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03705621174848121</v>
+        <v>0.03596610204899021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06555535921155908</v>
+        <v>0.06522552668336956</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>433625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423726</v>
+        <v>423449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>441302</v>
+        <v>440594</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.95702183321977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9351748558991012</v>
+        <v>0.9345646727377122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9739669044773716</v>
+        <v>0.9724035202064628</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>396</v>
@@ -2815,19 +2815,19 @@
         <v>405495</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>394138</v>
+        <v>395071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>413396</v>
+        <v>413918</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9425068862574055</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9161094007003501</v>
+        <v>0.9182796264389975</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9608727854696323</v>
+        <v>0.9620848548682566</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>822</v>
@@ -2836,19 +2836,19 @@
         <v>839119</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>825421</v>
+        <v>825712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>850595</v>
+        <v>851558</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9499522427189261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9344446407884409</v>
+        <v>0.9347744733166304</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9629437882515188</v>
+        <v>0.9640338979510098</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>42409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31007</v>
+        <v>31707</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57029</v>
+        <v>58915</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06172223854776342</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04512822124478856</v>
+        <v>0.04614711207767988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08300132730661205</v>
+        <v>0.0857465810016282</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -2961,19 +2961,19 @@
         <v>37829</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26484</v>
+        <v>27579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54359</v>
+        <v>53474</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06208549841813153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04346581902091978</v>
+        <v>0.04526323689989529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08921498474590384</v>
+        <v>0.08776164903049113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -2982,19 +2982,19 @@
         <v>80238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62873</v>
+        <v>62805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99668</v>
+        <v>100500</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06189297135823137</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04849833808937176</v>
+        <v>0.04844585282157281</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07688094090243001</v>
+        <v>0.07752293946047359</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>644678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>630058</v>
+        <v>628172</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>656080</v>
+        <v>655380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9382777614522366</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.916998672693388</v>
+        <v>0.9142534189983718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9548717787552115</v>
+        <v>0.9538528879223201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>537</v>
@@ -3032,19 +3032,19 @@
         <v>571479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>554949</v>
+        <v>555834</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>582824</v>
+        <v>581729</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9379145015818685</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9107850152540964</v>
+        <v>0.9122383509695092</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9565341809790804</v>
+        <v>0.9547367631001048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1163</v>
@@ -3053,19 +3053,19 @@
         <v>1216157</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1196727</v>
+        <v>1195895</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1233522</v>
+        <v>1233590</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9381070286417686</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.92311905909757</v>
+        <v>0.9224770605395264</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9515016619106282</v>
+        <v>0.9515541471784272</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>50230</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36473</v>
+        <v>37489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66207</v>
+        <v>66483</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07366645436471281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05348967946216579</v>
+        <v>0.05497964483635057</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09709674804822978</v>
+        <v>0.09750165557864755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -3178,19 +3178,19 @@
         <v>68209</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52877</v>
+        <v>53363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86164</v>
+        <v>85837</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09608183341047431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07448459538561661</v>
+        <v>0.07516986260019734</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1213742137511656</v>
+        <v>0.120914269455869</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -3199,19 +3199,19 @@
         <v>118439</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100247</v>
+        <v>96707</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>142685</v>
+        <v>140293</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08509994375882973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07202896083852116</v>
+        <v>0.06948482448938526</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1025209396902887</v>
+        <v>0.1008024131870672</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>631633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>615656</v>
+        <v>615380</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>645390</v>
+        <v>644374</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9263335456352871</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9029032519517706</v>
+        <v>0.9024983444213522</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9465103205378342</v>
+        <v>0.9450203551636492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>603</v>
@@ -3249,19 +3249,19 @@
         <v>641693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623738</v>
+        <v>624065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>657025</v>
+        <v>656539</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9039181665895257</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8786257862488344</v>
+        <v>0.8790857305441311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9255154046143835</v>
+        <v>0.9248301373998027</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1209</v>
@@ -3270,19 +3270,19 @@
         <v>1273326</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1249080</v>
+        <v>1251472</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1291518</v>
+        <v>1295058</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9149000562411703</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8974790603097114</v>
+        <v>0.8991975868129327</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9279710391614788</v>
+        <v>0.9305151755106148</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>58369</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43954</v>
+        <v>44450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76354</v>
+        <v>74638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09512128221001941</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07163015578689076</v>
+        <v>0.07243750066029619</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1244305532409658</v>
+        <v>0.1216339595256917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -3395,19 +3395,19 @@
         <v>77598</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59734</v>
+        <v>62137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95291</v>
+        <v>96627</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1259294060660778</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09693983510558099</v>
+        <v>0.1008396880842239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1546428117221411</v>
+        <v>0.156811417479814</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>119</v>
@@ -3416,19 +3416,19 @@
         <v>135967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112944</v>
+        <v>113236</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160302</v>
+        <v>163332</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1105575116443943</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09183746864118883</v>
+        <v>0.09207457541069128</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.130344880606236</v>
+        <v>0.132808443704058</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>555262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>537277</v>
+        <v>538993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>569677</v>
+        <v>569181</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9048787177899806</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8755694467590341</v>
+        <v>0.8783660404743088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9283698442131093</v>
+        <v>0.9275624993397038</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>472</v>
@@ -3466,19 +3466,19 @@
         <v>538601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>520908</v>
+        <v>519572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>556465</v>
+        <v>554062</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8740705939339222</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.845357188277859</v>
+        <v>0.843188582520186</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9030601648944191</v>
+        <v>0.8991603119157762</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>967</v>
@@ -3487,19 +3487,19 @@
         <v>1093863</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1069528</v>
+        <v>1066498</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1116886</v>
+        <v>1116594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8894424883556057</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8696551193937639</v>
+        <v>0.867191556295942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9081625313588112</v>
+        <v>0.9079254245893087</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>56291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42937</v>
+        <v>43491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72793</v>
+        <v>71638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.131430124087737</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1002515433767565</v>
+        <v>0.1015438857055487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1699580468766647</v>
+        <v>0.1672631923087152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -3612,19 +3612,19 @@
         <v>64807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50060</v>
+        <v>50177</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81368</v>
+        <v>83233</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1447233551038505</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1117918939644884</v>
+        <v>0.1120518951915795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1817061509124929</v>
+        <v>0.1858720264007375</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -3633,19 +3633,19 @@
         <v>121098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100279</v>
+        <v>102558</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142345</v>
+        <v>144248</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1382247012979543</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1144612415080125</v>
+        <v>0.1170622753016461</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1624766354503931</v>
+        <v>0.1646489162070826</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>372006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>355504</v>
+        <v>356659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>385360</v>
+        <v>384806</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.868569875912263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8300419531233351</v>
+        <v>0.8327368076912848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8997484566232433</v>
+        <v>0.8984561142944513</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>347</v>
@@ -3683,19 +3683,19 @@
         <v>382993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>366432</v>
+        <v>364567</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>397740</v>
+        <v>397623</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8552766448961495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8182938490875068</v>
+        <v>0.8141279735992625</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8882081060355114</v>
+        <v>0.8879481048084201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>685</v>
@@ -3704,19 +3704,19 @@
         <v>754999</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>733752</v>
+        <v>731849</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>775818</v>
+        <v>773539</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8617752987020457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8375233645496066</v>
+        <v>0.8353510837929173</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8855387584919875</v>
+        <v>0.8829377246983539</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>48186</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34562</v>
+        <v>35954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1555457439082857</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.111566634395251</v>
+        <v>0.1160618426960137</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2053040150641181</v>
+        <v>0.2069180836506797</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -3829,19 +3829,19 @@
         <v>48919</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36912</v>
+        <v>36584</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63375</v>
+        <v>64867</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.138190801629315</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1042731574605696</v>
+        <v>0.1033470323727665</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1790280486399994</v>
+        <v>0.183243458921148</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -3850,19 +3850,19 @@
         <v>97105</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79361</v>
+        <v>79530</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116880</v>
+        <v>117554</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1462903280342636</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1195594346285851</v>
+        <v>0.1198138292660853</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1760823783275732</v>
+        <v>0.1770970117938341</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>261600</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246186</v>
+        <v>245686</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>275224</v>
+        <v>273832</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8444542560917143</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.794695984935882</v>
+        <v>0.7930819163493203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8884333656047489</v>
+        <v>0.8839381573039864</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>298</v>
@@ -3900,19 +3900,19 @@
         <v>305077</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>290621</v>
+        <v>289129</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>317084</v>
+        <v>317412</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8618091983706849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8209719513600006</v>
+        <v>0.8167565410788519</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8957268425394305</v>
+        <v>0.8966529676272336</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>539</v>
@@ -3921,19 +3921,19 @@
         <v>566677</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>546902</v>
+        <v>546228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>584421</v>
+        <v>584252</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8537096719657364</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8239176216724269</v>
+        <v>0.8229029882061659</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8804405653714149</v>
+        <v>0.880186170733915</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>51363</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38568</v>
+        <v>37858</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>66611</v>
+        <v>66972</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2055746600462419</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1543658887900134</v>
+        <v>0.1515214440096873</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2666021086839278</v>
+        <v>0.2680493546619813</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -4046,19 +4046,19 @@
         <v>87683</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69710</v>
+        <v>71675</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105199</v>
+        <v>105557</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2254178097447041</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1792127791198174</v>
+        <v>0.1842638909668529</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2704487595433562</v>
+        <v>0.2713700525453033</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>122</v>
@@ -4067,19 +4067,19 @@
         <v>139046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>117366</v>
+        <v>117981</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162968</v>
+        <v>162382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2176570141607508</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1837194608170108</v>
+        <v>0.1846829612289502</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2551037157908197</v>
+        <v>0.2541860920025827</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>198488</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>183240</v>
+        <v>182879</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>211283</v>
+        <v>211993</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7944253399537582</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7333978913160725</v>
+        <v>0.7319506453380185</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8456341112099867</v>
+        <v>0.8484785559903126</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -4117,19 +4117,19 @@
         <v>301296</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>283780</v>
+        <v>283422</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>319269</v>
+        <v>317304</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.774582190255296</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7295512404566437</v>
+        <v>0.7286299474546967</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8207872208801825</v>
+        <v>0.8157361090331473</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>450</v>
@@ -4138,19 +4138,19 @@
         <v>499784</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>475862</v>
+        <v>476448</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>521464</v>
+        <v>520849</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7823429858392492</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7448962842091803</v>
+        <v>0.7458139079974173</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8162805391829892</v>
+        <v>0.8153170387710499</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>326322</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>293912</v>
+        <v>290534</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>364279</v>
+        <v>363420</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09531501866468625</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08584840693053677</v>
+        <v>0.08486196156895577</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1064018071386423</v>
+        <v>0.1061510008502603</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>373</v>
@@ -4263,19 +4263,19 @@
         <v>409780</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>371732</v>
+        <v>368517</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>449883</v>
+        <v>450570</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1152226944630916</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1045243533825034</v>
+        <v>0.1036203553886634</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1264990469651132</v>
+        <v>0.1266921005266389</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>667</v>
@@ -4284,19 +4284,19 @@
         <v>736101</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>680009</v>
+        <v>688634</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>792730</v>
+        <v>791784</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.105458238510695</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09742210928709205</v>
+        <v>0.09865785065023695</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1135711967415785</v>
+        <v>0.1134357087856461</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3097290</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3059333</v>
+        <v>3060192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3129700</v>
+        <v>3133078</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9046849813353137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8935981928613577</v>
+        <v>0.8938489991497396</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9141515930694631</v>
+        <v>0.9151380384310441</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2923</v>
@@ -4334,19 +4334,19 @@
         <v>3146634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3106531</v>
+        <v>3105844</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3184682</v>
+        <v>3187897</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8847773055369085</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8735009530348868</v>
+        <v>0.8733078994733611</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8954756466174966</v>
+        <v>0.8963796446113366</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5835</v>
@@ -4355,19 +4355,19 @@
         <v>6243926</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6187297</v>
+        <v>6188243</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6300018</v>
+        <v>6291393</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.894541761489305</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8864288032584215</v>
+        <v>0.8865642912143534</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9025778907129079</v>
+        <v>0.9013421493497629</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>16344</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8894</v>
+        <v>9660</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24985</v>
+        <v>25873</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03933828789651085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02140624986777204</v>
+        <v>0.02324983720726474</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0601357980331623</v>
+        <v>0.0622736831194987</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4723,19 +4723,19 @@
         <v>10409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5591</v>
+        <v>5006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18808</v>
+        <v>17754</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02630135867796974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01412781493597263</v>
+        <v>0.01264847993072994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04752544369299642</v>
+        <v>0.04486020606038723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -4744,19 +4744,19 @@
         <v>26753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17548</v>
+        <v>17135</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37692</v>
+        <v>38135</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03297825640503831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02163146912105146</v>
+        <v>0.02112172922203938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04646330283913886</v>
+        <v>0.04700873888480079</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>399128</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>390487</v>
+        <v>389599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406578</v>
+        <v>405812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9606617121034892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9398642019668377</v>
+        <v>0.9377263168805012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9785937501322279</v>
+        <v>0.9767501627927353</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>393</v>
@@ -4794,19 +4794,19 @@
         <v>385346</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>376947</v>
+        <v>378001</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>390164</v>
+        <v>390749</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9736986413220302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9524745563070037</v>
+        <v>0.9551397939396127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9858721850640274</v>
+        <v>0.9873515200692701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>768</v>
@@ -4815,19 +4815,19 @@
         <v>784474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>773535</v>
+        <v>773092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>793679</v>
+        <v>794092</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9670217435949617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9535366971608611</v>
+        <v>0.9529912611151992</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9783685308789485</v>
+        <v>0.9788782707779605</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>21847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14634</v>
+        <v>14236</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32873</v>
+        <v>32128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0374530295348304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02508823222045934</v>
+        <v>0.02440594662691052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05635648934616382</v>
+        <v>0.05507840361866098</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -4940,19 +4940,19 @@
         <v>20272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13008</v>
+        <v>12689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29905</v>
+        <v>30648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03615645617359162</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.023200745480404</v>
+        <v>0.0226314704006978</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05333882787929444</v>
+        <v>0.05466304192211754</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -4961,19 +4961,19 @@
         <v>42118</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30469</v>
+        <v>31219</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54681</v>
+        <v>55079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03681757562976372</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02663441253280335</v>
+        <v>0.02729021686786093</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04779907368447758</v>
+        <v>0.04814744683212639</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>561461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>550435</v>
+        <v>551180</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>568674</v>
+        <v>569072</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9625469704651696</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9436435106538361</v>
+        <v>0.9449215963813388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9749117677795406</v>
+        <v>0.9755940533730894</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>555</v>
@@ -5011,19 +5011,19 @@
         <v>540391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>530758</v>
+        <v>530015</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>547655</v>
+        <v>547974</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9638435438264084</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9466611721207054</v>
+        <v>0.9453369580778823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9767992545195958</v>
+        <v>0.9773685295993021</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1093</v>
@@ -5032,19 +5032,19 @@
         <v>1101853</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1089290</v>
+        <v>1088892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1113502</v>
+        <v>1112752</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9631824243702363</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9522009263155222</v>
+        <v>0.9518525531678733</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9733655874671966</v>
+        <v>0.9727097831321391</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>30369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20168</v>
+        <v>20352</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44023</v>
+        <v>41987</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04546077907906594</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0301910147625589</v>
+        <v>0.03046540182846581</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06589958328527205</v>
+        <v>0.06285272622460249</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -5157,19 +5157,19 @@
         <v>35855</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26006</v>
+        <v>26661</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48935</v>
+        <v>48694</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05437414531715105</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0394379538540389</v>
+        <v>0.04043062957070701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07421012991187047</v>
+        <v>0.07384446816602343</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -5178,19 +5178,19 @@
         <v>66224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51517</v>
+        <v>51576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82744</v>
+        <v>82533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04988856219326759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03880899796639013</v>
+        <v>0.0388537941298712</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06233366734124834</v>
+        <v>0.06217423617671871</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>637656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624002</v>
+        <v>626038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>647857</v>
+        <v>647673</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.954539220920934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.934100416714728</v>
+        <v>0.9371472737753976</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9698089852374412</v>
+        <v>0.9695345981715343</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>625</v>
@@ -5228,19 +5228,19 @@
         <v>623562</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>610482</v>
+        <v>610723</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>633411</v>
+        <v>632756</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.945625854682849</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9257898700881296</v>
+        <v>0.926155531833977</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9605620461459613</v>
+        <v>0.9595693704292931</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1233</v>
@@ -5249,19 +5249,19 @@
         <v>1261217</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1244697</v>
+        <v>1244908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1275924</v>
+        <v>1275865</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9501114378067324</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.937666332658752</v>
+        <v>0.9378257638232809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9611910020336099</v>
+        <v>0.9611462058701288</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>63393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47840</v>
+        <v>48574</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79509</v>
+        <v>81593</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09862941711738182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07443165751520517</v>
+        <v>0.07557423757919657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1237034557993363</v>
+        <v>0.1269454160163366</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -5374,19 +5374,19 @@
         <v>52664</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39302</v>
+        <v>39804</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66846</v>
+        <v>68501</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0812661048934859</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06064622954701933</v>
+        <v>0.06142042871361118</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1031491565445078</v>
+        <v>0.1057034833368306</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>105</v>
@@ -5395,19 +5395,19 @@
         <v>116057</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95780</v>
+        <v>95177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136769</v>
+        <v>137681</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08991203972829451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07420277236122462</v>
+        <v>0.07373563357967935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1059575491432222</v>
+        <v>0.1066641765954439</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>579345</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>563229</v>
+        <v>561145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>594898</v>
+        <v>594164</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9013705828826182</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8762965442006632</v>
+        <v>0.8730545839836629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9255683424847948</v>
+        <v>0.9244257624208033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>551</v>
@@ -5445,19 +5445,19 @@
         <v>595386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>581204</v>
+        <v>579549</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>608748</v>
+        <v>608246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9187338951065142</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8968508434554922</v>
+        <v>0.8942965166631693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9393537704529806</v>
+        <v>0.9385795712863886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1075</v>
@@ -5466,19 +5466,19 @@
         <v>1174731</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1154019</v>
+        <v>1153107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1195008</v>
+        <v>1195611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9100879602717055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8940424508567777</v>
+        <v>0.8933358234045561</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9257972276387754</v>
+        <v>0.9262643664203205</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>50942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38072</v>
+        <v>38063</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66309</v>
+        <v>66827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1068519680613099</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0798580726685121</v>
+        <v>0.07983732524344615</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1390845917394078</v>
+        <v>0.1401713337854555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -5591,19 +5591,19 @@
         <v>74074</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56473</v>
+        <v>56994</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91465</v>
+        <v>91832</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1494393506919511</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1139308446882757</v>
+        <v>0.1149820954500527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1845247545051062</v>
+        <v>0.1852642718630077</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -5612,19 +5612,19 @@
         <v>125016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102670</v>
+        <v>102213</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>150543</v>
+        <v>149545</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1285601292817383</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1055803238546172</v>
+        <v>0.1051103768041096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1548102342975581</v>
+        <v>0.1537844498144007</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>425810</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>410443</v>
+        <v>409925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>438680</v>
+        <v>438689</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8931480319386901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8609154082605922</v>
+        <v>0.8598286662145446</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.920141927331488</v>
+        <v>0.9201626747565539</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>369</v>
@@ -5662,19 +5662,19 @@
         <v>421606</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>404215</v>
+        <v>403848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>439207</v>
+        <v>438686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8505606493080489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8154752454948938</v>
+        <v>0.8147357281369922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8860691553117241</v>
+        <v>0.8850179045499472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>748</v>
@@ -5683,19 +5683,19 @@
         <v>847417</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>821890</v>
+        <v>822888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>869763</v>
+        <v>870220</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8714398707182617</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.845189765702442</v>
+        <v>0.8462155501855992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8944196761453829</v>
+        <v>0.8948896231958904</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>32260</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23156</v>
+        <v>23117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45739</v>
+        <v>43831</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0964928061443199</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06926014437424777</v>
+        <v>0.06914334701256333</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1368086539532778</v>
+        <v>0.1310995508532589</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -5808,19 +5808,19 @@
         <v>45821</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33649</v>
+        <v>33464</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60345</v>
+        <v>60131</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1212951593034312</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0890748508069014</v>
+        <v>0.08858541061773811</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.159742252597204</v>
+        <v>0.1591762128802167</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -5829,19 +5829,19 @@
         <v>78081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62041</v>
+        <v>63907</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>96130</v>
+        <v>98170</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1096503568216893</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08712468951580479</v>
+        <v>0.08974605417776813</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1349971165730728</v>
+        <v>0.137861995349751</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>302070</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>288591</v>
+        <v>290499</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>311174</v>
+        <v>311213</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9035071938556801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8631913460467222</v>
+        <v>0.868900449146741</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9307398556257523</v>
+        <v>0.9308566529874367</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>311</v>
@@ -5879,19 +5879,19 @@
         <v>331941</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>317417</v>
+        <v>317631</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>344113</v>
+        <v>344298</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8787048406965687</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8402577474027961</v>
+        <v>0.8408237871197833</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9109251491930985</v>
+        <v>0.9114145893822618</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>604</v>
@@ -5900,19 +5900,19 @@
         <v>634011</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>615962</v>
+        <v>613922</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>650051</v>
+        <v>648185</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8903496431783107</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8650028834269271</v>
+        <v>0.8621380046502489</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9128753104841952</v>
+        <v>0.9102539458222318</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>22786</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15521</v>
+        <v>15476</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32896</v>
+        <v>33222</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08866243786943577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06039520985319643</v>
+        <v>0.06021737187382003</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1280023068075749</v>
+        <v>0.1292713343877409</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -6025,19 +6025,19 @@
         <v>69068</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51451</v>
+        <v>52367</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85645</v>
+        <v>87918</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1725965190249818</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1285730903780796</v>
+        <v>0.1308627218051492</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2140218643564326</v>
+        <v>0.2197014382746781</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -6046,19 +6046,19 @@
         <v>91854</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73899</v>
+        <v>74465</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113834</v>
+        <v>112094</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1397724559452255</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1124512216683593</v>
+        <v>0.113311680137383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.173218788432211</v>
+        <v>0.1705714161487294</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>234212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>224102</v>
+        <v>223776</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>241477</v>
+        <v>241522</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9113375621305643</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8719976931924249</v>
+        <v>0.8707286656122586</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9396047901468034</v>
+        <v>0.93978262812618</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>250</v>
@@ -6096,19 +6096,19 @@
         <v>331101</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>314524</v>
+        <v>312251</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>348718</v>
+        <v>347802</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8274034809750183</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7859781356435673</v>
+        <v>0.780298561725322</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8714269096219204</v>
+        <v>0.8691372781948509</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>526</v>
@@ -6117,19 +6117,19 @@
         <v>565313</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>543333</v>
+        <v>545073</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>583268</v>
+        <v>582702</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8602275440547745</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8267812115677889</v>
+        <v>0.8294285838512706</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8875487783316405</v>
+        <v>0.8866883198626172</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>237941</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>207158</v>
+        <v>207535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>266620</v>
+        <v>269704</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07044624402970127</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06133246210174855</v>
+        <v>0.06144406259799352</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07893708787561635</v>
+        <v>0.07985018813113387</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>277</v>
@@ -6242,19 +6242,19 @@
         <v>308163</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>272314</v>
+        <v>275848</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>343946</v>
+        <v>348004</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08711326161499133</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07697927246256764</v>
+        <v>0.07797836776051914</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09722858783952383</v>
+        <v>0.09837571667271901</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>500</v>
@@ -6263,19 +6263,19 @@
         <v>546104</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>503919</v>
+        <v>499495</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>596051</v>
+        <v>597223</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07897241686341512</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07287204604590748</v>
+        <v>0.07223225538348983</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08619526979873124</v>
+        <v>0.08636485465795297</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3139683</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3111004</v>
+        <v>3107920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3170466</v>
+        <v>3170089</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9295537559702988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9210629121243835</v>
+        <v>0.9201498118688662</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9386675378982514</v>
+        <v>0.9385559374020065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3054</v>
@@ -6313,19 +6313,19 @@
         <v>3229333</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3193550</v>
+        <v>3189492</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3265182</v>
+        <v>3261648</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9128867383850087</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9027714121604762</v>
+        <v>0.901624283327281</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9230207275374324</v>
+        <v>0.922021632239481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6047</v>
@@ -6334,19 +6334,19 @@
         <v>6369015</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6319068</v>
+        <v>6317896</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6411200</v>
+        <v>6415624</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9210275831365848</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9138047302012688</v>
+        <v>0.9136351453420464</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9271279539540929</v>
+        <v>0.9277677446165101</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>25186</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13477</v>
+        <v>13741</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42595</v>
+        <v>43310</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06255105632191398</v>
+        <v>0.06255105632191399</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03347197036654951</v>
+        <v>0.03412667584780666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1057888544304238</v>
+        <v>0.1075631470823638</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -6702,19 +6702,19 @@
         <v>35375</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22256</v>
+        <v>21403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54376</v>
+        <v>53020</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09758221152679217</v>
+        <v>0.09758221152679214</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0613942565919908</v>
+        <v>0.05904070378532444</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.149998733144577</v>
+        <v>0.1462571323619386</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -6723,19 +6723,19 @@
         <v>60561</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40543</v>
+        <v>42578</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81038</v>
+        <v>88200</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07914794452385843</v>
+        <v>0.0791479445238584</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05298585988022145</v>
+        <v>0.05564594026968737</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1059098408307211</v>
+        <v>0.1152701546833396</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>377459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>360050</v>
+        <v>359335</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389168</v>
+        <v>388904</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9374489436780861</v>
+        <v>0.937448943678086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8942111455695764</v>
+        <v>0.8924368529176362</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9665280296334504</v>
+        <v>0.9658733241521933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>187</v>
@@ -6773,19 +6773,19 @@
         <v>327137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308136</v>
+        <v>309492</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>340256</v>
+        <v>341109</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9024177884732077</v>
+        <v>0.9024177884732079</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8500012668554229</v>
+        <v>0.8537428676380615</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9386057434080093</v>
+        <v>0.9409592962146758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -6794,19 +6794,19 @@
         <v>704596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>684119</v>
+        <v>676957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>724614</v>
+        <v>722579</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9208520554761416</v>
+        <v>0.9208520554761415</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8940901591692787</v>
+        <v>0.8847298453166605</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9470141401197786</v>
+        <v>0.9443540597303131</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>50490</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35303</v>
+        <v>35412</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71220</v>
+        <v>73257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1076807863786986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0752926867234954</v>
+        <v>0.07552327792330338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1518936155522318</v>
+        <v>0.1562378034226933</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -6919,19 +6919,19 @@
         <v>34424</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24064</v>
+        <v>23861</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47500</v>
+        <v>48371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06882784062010834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04811467070421635</v>
+        <v>0.0477086475168535</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09497208071226701</v>
+        <v>0.09671486259362665</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -6940,19 +6940,19 @@
         <v>84913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65832</v>
+        <v>65809</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110216</v>
+        <v>111169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08762763199756796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0679358204840847</v>
+        <v>0.06791289324391864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1137391895738064</v>
+        <v>0.1147224395486491</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>418393</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>397663</v>
+        <v>395626</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>433580</v>
+        <v>433471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8923192136213014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.848106384447768</v>
+        <v>0.8437621965773066</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9247073132765046</v>
+        <v>0.9244767220766968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>428</v>
@@ -6990,19 +6990,19 @@
         <v>465719</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>452643</v>
+        <v>451772</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>476079</v>
+        <v>476282</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9311721593798916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9050279192877331</v>
+        <v>0.9032851374063734</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9518853292957836</v>
+        <v>0.9522913524831466</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>696</v>
@@ -7011,19 +7011,19 @@
         <v>884113</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>858810</v>
+        <v>857857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>903194</v>
+        <v>903217</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.912372368002432</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8862608104261944</v>
+        <v>0.885277560451351</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9320641795159156</v>
+        <v>0.9320871067560814</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>35633</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24096</v>
+        <v>24928</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48329</v>
+        <v>48632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05771013595613608</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03902575619318895</v>
+        <v>0.04037369383119836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07827277630849103</v>
+        <v>0.07876366119395557</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -7136,19 +7136,19 @@
         <v>53819</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42657</v>
+        <v>43295</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66465</v>
+        <v>66914</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08670960429283744</v>
+        <v>0.08670960429283746</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06872674594675655</v>
+        <v>0.0697539797064386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1070833327074048</v>
+        <v>0.1078075806165901</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -7157,19 +7157,19 @@
         <v>89452</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74677</v>
+        <v>73861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109653</v>
+        <v>108383</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07224778364654749</v>
+        <v>0.07224778364654752</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0603142524462901</v>
+        <v>0.05965589395734459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08856396583019222</v>
+        <v>0.08753820873441374</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>581810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>569114</v>
+        <v>568811</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>593347</v>
+        <v>592515</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9422898640438637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9217272236915089</v>
+        <v>0.9212363388060444</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9609742438068108</v>
+        <v>0.9596263061688016</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>772</v>
@@ -7207,19 +7207,19 @@
         <v>566862</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>554216</v>
+        <v>553767</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>578024</v>
+        <v>577386</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9132903957071625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8929166672925952</v>
+        <v>0.8921924193834099</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9312732540532435</v>
+        <v>0.9302460202935612</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1283</v>
@@ -7228,19 +7228,19 @@
         <v>1148672</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1128471</v>
+        <v>1129741</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1163447</v>
+        <v>1164263</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9277522163534525</v>
+        <v>0.9277522163534526</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.911436034169809</v>
+        <v>0.9124617912655862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9396857475537101</v>
+        <v>0.9403441060426554</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>98222</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79772</v>
+        <v>80837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115650</v>
+        <v>117269</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1409466075134466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1144718217474385</v>
+        <v>0.1160001952666824</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1659555064915215</v>
+        <v>0.1682795784077171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -7353,19 +7353,19 @@
         <v>91422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78352</v>
+        <v>76807</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>106777</v>
+        <v>106541</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1253736240789579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1074505433582757</v>
+        <v>0.1053312639922997</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1464309875420616</v>
+        <v>0.1461070285008943</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>236</v>
@@ -7374,19 +7374,19 @@
         <v>189643</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167902</v>
+        <v>167291</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>214037</v>
+        <v>213998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1329836189676598</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1177378604351415</v>
+        <v>0.1173096459639387</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1500894363894072</v>
+        <v>0.1500619555941288</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>598649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>581221</v>
+        <v>579602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>617099</v>
+        <v>616034</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8590533924865534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8340444935084785</v>
+        <v>0.8317204215922829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8855281782525615</v>
+        <v>0.8839998047333175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>985</v>
@@ -7424,19 +7424,19 @@
         <v>637773</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>622418</v>
+        <v>622654</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>650843</v>
+        <v>652388</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8746263759210422</v>
+        <v>0.8746263759210419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8535690124579385</v>
+        <v>0.8538929714991058</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8925494566417241</v>
+        <v>0.8946687360077004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1552</v>
@@ -7445,19 +7445,19 @@
         <v>1236423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1212029</v>
+        <v>1212068</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1258164</v>
+        <v>1258775</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8670163810323402</v>
+        <v>0.86701638103234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8499105636105927</v>
+        <v>0.8499380444058713</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8822621395648584</v>
+        <v>0.8826903540360614</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>110711</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93766</v>
+        <v>93425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128295</v>
+        <v>131126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.182684359485228</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1547227640970163</v>
+        <v>0.1541604370398844</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2116997155540271</v>
+        <v>0.2163710265389408</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>124</v>
@@ -7570,19 +7570,19 @@
         <v>79172</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67279</v>
+        <v>67089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92681</v>
+        <v>92349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1309103998601011</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1112457330385777</v>
+        <v>0.110932200734601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1532480842325828</v>
+        <v>0.1526996201372642</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>244</v>
@@ -7591,19 +7591,19 @@
         <v>189883</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169114</v>
+        <v>169601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>212927</v>
+        <v>213831</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1568240350584268</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1396705362072233</v>
+        <v>0.140072935516371</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1758563870596116</v>
+        <v>0.1766024298684252</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>495314</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>477730</v>
+        <v>474899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>512259</v>
+        <v>512600</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8173156405147721</v>
+        <v>0.817315640514772</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7883002844459729</v>
+        <v>0.7836289734610595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8452772359029839</v>
+        <v>0.8458395629601155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>869</v>
@@ -7641,19 +7641,19 @@
         <v>525606</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>512097</v>
+        <v>512429</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>537499</v>
+        <v>537689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8690896001398991</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8467519157674172</v>
+        <v>0.8473003798627359</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8887542669614222</v>
+        <v>0.8890677992653994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1408</v>
@@ -7662,19 +7662,19 @@
         <v>1020920</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>997876</v>
+        <v>996972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1041689</v>
+        <v>1041202</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8431759649415731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8241436129403884</v>
+        <v>0.8233975701315748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8603294637927766</v>
+        <v>0.8599270644836289</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>67175</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54852</v>
+        <v>55427</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81284</v>
+        <v>79746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.165621649702823</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1352380887887979</v>
+        <v>0.1366553802538701</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2004068073328435</v>
+        <v>0.1966153665979023</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -7787,19 +7787,19 @@
         <v>78741</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68414</v>
+        <v>67177</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90713</v>
+        <v>91563</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1796103621943172</v>
+        <v>0.1796103621943171</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1560529765973343</v>
+        <v>0.1532320986565675</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2069187027914618</v>
+        <v>0.2088561634575758</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>237</v>
@@ -7808,19 +7808,19 @@
         <v>145916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>128990</v>
+        <v>130083</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162960</v>
+        <v>164371</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1728878795317413</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1528322961067393</v>
+        <v>0.1541279567291882</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1930815529959834</v>
+        <v>0.1947533524085416</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>338419</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>324310</v>
+        <v>325848</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>350742</v>
+        <v>350167</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8343783502971771</v>
+        <v>0.834378350297177</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7995931926671564</v>
+        <v>0.8033846334020978</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8647619112112023</v>
+        <v>0.8633446197461301</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>681</v>
@@ -7858,19 +7858,19 @@
         <v>359659</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>347687</v>
+        <v>346837</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>369986</v>
+        <v>371223</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8203896378056829</v>
+        <v>0.8203896378056827</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7930812972085381</v>
+        <v>0.7911438365424248</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8439470234026654</v>
+        <v>0.8467679013434325</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1156</v>
@@ -7879,19 +7879,19 @@
         <v>698078</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>681034</v>
+        <v>679623</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>715004</v>
+        <v>713911</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8271121204682587</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8069184470040166</v>
+        <v>0.805246647591458</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8471677038932611</v>
+        <v>0.8458720432708116</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>87294</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74403</v>
+        <v>74520</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100840</v>
+        <v>100524</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2830264087183442</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2412284714327508</v>
+        <v>0.2416088108381081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3269449925530842</v>
+        <v>0.3259199169662345</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>311</v>
@@ -8004,19 +8004,19 @@
         <v>166305</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151933</v>
+        <v>151061</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>181323</v>
+        <v>182745</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3589715265846624</v>
+        <v>0.3589715265846623</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.32795015016056</v>
+        <v>0.3260680249147461</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.391388693426684</v>
+        <v>0.3944590099968439</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>443</v>
@@ -8025,19 +8025,19 @@
         <v>253599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>233541</v>
+        <v>234871</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>273333</v>
+        <v>274781</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3286184126555964</v>
+        <v>0.3286184126555965</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3026267060942191</v>
+        <v>0.3043500212529603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.354190511817069</v>
+        <v>0.356065789758625</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>221138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>207592</v>
+        <v>207908</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>234029</v>
+        <v>233912</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7169735912816558</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6730550074469158</v>
+        <v>0.6740800830337655</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7587715285672493</v>
+        <v>0.7583911891618919</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>567</v>
@@ -8075,19 +8075,19 @@
         <v>296976</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>281958</v>
+        <v>280536</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>311348</v>
+        <v>312220</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6410284734153379</v>
+        <v>0.6410284734153378</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.608611306573316</v>
+        <v>0.6055409900031558</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.67204984983944</v>
+        <v>0.6739319750852538</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>891</v>
@@ -8096,19 +8096,19 @@
         <v>518114</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>498380</v>
+        <v>496932</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>538172</v>
+        <v>536842</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6713815873444033</v>
+        <v>0.6713815873444035</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6458094881829309</v>
+        <v>0.643934210241375</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6973732939057807</v>
+        <v>0.6956499787470397</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>474711</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>436003</v>
+        <v>436417</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>521472</v>
+        <v>517292</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.13540364256046</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1243629726215608</v>
+        <v>0.1244809848605344</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1487415243536528</v>
+        <v>0.1475491876805594</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>844</v>
@@ -8221,19 +8221,19 @@
         <v>539257</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>503503</v>
+        <v>504728</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>576971</v>
+        <v>576256</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1450009092793508</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1353870123263746</v>
+        <v>0.1357164771962186</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1551417724226002</v>
+        <v>0.1549495295350229</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1356</v>
@@ -8242,19 +8242,19 @@
         <v>1013967</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>961252</v>
+        <v>956407</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1073789</v>
+        <v>1071338</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1403438121057234</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1330474081047858</v>
+        <v>0.1323767836660814</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1486237249953962</v>
+        <v>0.1482844585565282</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3031181</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2984420</v>
+        <v>2988600</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3069889</v>
+        <v>3069475</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8645963574395399</v>
+        <v>0.86459635743954</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8512584756463476</v>
+        <v>0.8524508123194405</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8756370273784392</v>
+        <v>0.8755190151394654</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4489</v>
@@ -8292,19 +8292,19 @@
         <v>3179733</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3142019</v>
+        <v>3142734</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3215487</v>
+        <v>3214262</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8549990907206491</v>
+        <v>0.8549990907206493</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8448582275773997</v>
+        <v>0.8450504704649769</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8646129876736253</v>
+        <v>0.8642835228037813</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7331</v>
@@ -8313,19 +8313,19 @@
         <v>6210915</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6151093</v>
+        <v>6153544</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6263630</v>
+        <v>6268475</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8596561878942767</v>
+        <v>0.8596561878942766</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8513762750046038</v>
+        <v>0.8517155414434719</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8669525918952146</v>
+        <v>0.8676232163339187</v>
       </c>
     </row>
     <row r="27">
